--- a/mbs-perturbation/chain/welm/smote/chain_welm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/chain/welm/smote/chain_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5075921908893709</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9737991266375546</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.662704309063893</v>
+        <v>0.7386363636363636</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5904043065803344</v>
+        <v>0.7905089934940681</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6572668112798264</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4253393665158371</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5433526011560693</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="E3" t="n">
-        <v>0.696276395173454</v>
+        <v>0.6397058823529411</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5695652173913044</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7079646017699115</v>
+        <v>0.6770293609671848</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5340909090909091</v>
+        <v>0.5750000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.591304347826087</v>
+        <v>0.620253164556962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4572649572649573</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5323383084577115</v>
+        <v>0.714828897338403</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5512820512820513</v>
+        <v>0.8497461147868903</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5739130434782609</v>
+        <v>0.5974683544303797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3964757709251101</v>
+        <v>0.9669811320754716</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4787234042553191</v>
+        <v>0.720562390158172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6838970713353878</v>
+        <v>0.6703526136715124</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5799283221729699</v>
+        <v>0.5854634957166602</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6505758442686919</v>
+        <v>0.9872106594047851</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5850166449405808</v>
+        <v>0.7049482445252878</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6111901466924274</v>
+        <v>0.7050627208610825</v>
       </c>
     </row>
   </sheetData>
